--- a/medicine/Enfance/Géraldine_Alibeu/Géraldine_Alibeu.xlsx
+++ b/medicine/Enfance/Géraldine_Alibeu/Géraldine_Alibeu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9raldine_Alibeu</t>
+          <t>Géraldine_Alibeu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Géraldine Alibeu est une autrice-illustratrice française, née le 16 février 1978[1] à Échirolles[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Géraldine Alibeu est une autrice-illustratrice française, née le 16 février 1978 à Échirolles.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9raldine_Alibeu</t>
+          <t>Géraldine_Alibeu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2001, Géraldine Alibeu est diplômée de l'atelier d'illustration de Claude Lapointe à l'École supérieure des arts décoratifs de Strasbourg. Elle suit également un cursus à La Poudrière à Valence, où elle travaille le cinéma d'animation[2].
-Depuis 2001, elle exerce comme illustratrice d'ouvrages et de presse pour la jeunesse et écrit ses propres albums[3]. Elle travaille également la peinture sur céramique et la couture[3]. En 2019, elle a signé une trentaine d’ouvrages pour enfants au cours de sa carrière[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2001, Géraldine Alibeu est diplômée de l'atelier d'illustration de Claude Lapointe à l'École supérieure des arts décoratifs de Strasbourg. Elle suit également un cursus à La Poudrière à Valence, où elle travaille le cinéma d'animation.
+Depuis 2001, elle exerce comme illustratrice d'ouvrages et de presse pour la jeunesse et écrit ses propres albums. Elle travaille également la peinture sur céramique et la couture. En 2019, elle a signé une trentaine d’ouvrages pour enfants au cours de sa carrière.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9raldine_Alibeu</t>
+          <t>Géraldine_Alibeu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,16 +559,55 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>En tant qu'autrice-illustratrice
-Mars 2003 : La mariguita et la soupe du paradis (Seuil jeunesse)
+          <t>En tant qu'autrice-illustratrice</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mars 2003 : La mariguita et la soupe du paradis (Seuil jeunesse)
 Février 2004 : La course au renard (Autrement Jeunesse)
 Juin 2009 : L'Un d'entre eux (La Joie de lire)
 Septembre 2011 : Le bon moment (La Joie de lire)
 Mai 2012 : Les morceaux d'amour (Autrement Jeunesse)
 Octobre 2015 : Les yeux fermés (Actes Sud Junior)
-Septembre 2017 : Le refuge (Cambourakis)
-En tant qu'illustratrice
-Janvier 2001 : Le petit arbre chevelu, texte de Delphine Demilly (Autrement Jeunesse)
+Septembre 2017 : Le refuge (Cambourakis)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Géraldine_Alibeu</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9raldine_Alibeu</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En tant qu'illustratrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Janvier 2001 : Le petit arbre chevelu, texte de Delphine Demilly (Autrement Jeunesse)
 Mars 2003 : Quelle est ma couleur ?, texte d'Antoine Guilloppé (La Joie de lire)
 Novembre 2003 : La balade en traîneau, texte de S. Corinna Bille (La Joie de lire)
 Février 2004 : Le Petit Chaperon rouge a des soucis, texte d'Anne-Sophie de Monsabert (Albin Michel Jeunesse)
@@ -576,33 +629,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>G%C3%A9raldine_Alibeu</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Géraldine_Alibeu</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/G%C3%A9raldine_Alibeu</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2018 : Le refuge est nommé au prix Unicef de littérature jeunesse 2018[5]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2018 : Le refuge est nommé au prix Unicef de littérature jeunesse 2018</t>
         </is>
       </c>
     </row>
